--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2596.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2596.xlsx
@@ -354,7 +354,7 @@
         <v>1.389154684378844</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.156154321508909</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2596.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2596.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7821529085685928</v>
+        <v>1.524036407470703</v>
       </c>
       <c r="B1">
-        <v>1.389154684378844</v>
+        <v>2.377472400665283</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.333248138427734</v>
       </c>
       <c r="D1">
-        <v>2.156154321508909</v>
+        <v>3.431346416473389</v>
       </c>
       <c r="E1">
-        <v>0.9691849952895726</v>
+        <v>1.004138946533203</v>
       </c>
     </row>
   </sheetData>
